--- a/data/distritos_2011-2023.xlsx
+++ b/data/distritos_2011-2023.xlsx
@@ -33713,7 +33713,7 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>NAN</t>
+          <t>CERCADO DE JULIACA/LA CAPILLA/TAPARACHI</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
@@ -35953,7 +35953,7 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>NAN</t>
+          <t>CERCADO DE JULIACA/LA CAPILLA/TAPARACHI</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
@@ -36401,7 +36401,7 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>NAN</t>
+          <t>CERCADO DE JULIACA/LA CAPILLA/TAPARACHI</t>
         </is>
       </c>
       <c r="J627" t="inlineStr">
